--- a/17-OrdreNaissanceEtatCivil/ig/all-profiles.xlsx
+++ b/17-OrdreNaissanceEtatCivil/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T07:26:14+00:00</t>
+    <t>2025-09-08T07:51:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
